--- a/Boeing data 300m.xlsx
+++ b/Boeing data 300m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tc\METALLURGICAL LABORATORY 1\NPD\300M\Boeing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F1A3FB-07D8-4EC9-A807-5A370D8AD66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5095FE0-A715-4BC1-B592-46253DA1421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{0E765343-E0E9-4ACE-90A5-41681B0DEBF2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="73">
   <si>
     <t>Sample ID</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>L30</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -682,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B0301F-B2A0-4026-8FFD-19D9151F30A0}">
-  <dimension ref="A1:G242"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H6" activeCellId="1" sqref="G1 H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +700,7 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,11 +719,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -741,7 +744,7 @@
         <v>195.4169493</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -762,7 +765,7 @@
         <v>198.13061027999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -783,7 +786,7 @@
         <v>197.81732820000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -804,7 +807,7 @@
         <v>197.02687109999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -825,7 +828,7 @@
         <v>198.29740398000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -846,7 +849,7 @@
         <v>199.67091384</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -867,7 +870,7 @@
         <v>199.05015120000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -888,7 +891,7 @@
         <v>197.98702265999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -909,7 +912,7 @@
         <v>199.16763198000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -930,7 +933,7 @@
         <v>195.3009189</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -951,7 +954,7 @@
         <v>204.22655741999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -972,7 +975,7 @@
         <v>205.46373155999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -993,7 +996,7 @@
         <v>205.09678541999997</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>204.8371674</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>206.02212786000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>207.34922555999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>205.76396022</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>206.48479908000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>203.44335222000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>203.12861975999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>202.34396417999997</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>207.14472198000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>203.24465015999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>203.46510791999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>206.04243317999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>205.7726625</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>208.08311784</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>203.93648141999998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>206.22808182000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>204.49487772000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>178.97544162</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>181.07414148000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>181.08284376</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>179.39460144</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>179.03780796000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>183.89368020000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>14</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>178.33002252</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>179.99360838000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>179.90078405999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>176.3952156</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>18</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>188.57840760000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>189.86489466</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>188.25062172</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>185.2062741</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>22</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>186.3158148</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>187.47466842</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>184.92345</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>25</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>186.01558614000001</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>26</v>
       </c>
@@ -1749,7 +1752,7 @@
         <v>186.92352402</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>178.58528939999999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>28</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>177.47719908000002</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>29</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>182.88711648</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>30</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>177.7005576</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>31</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>177.76437432</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>32</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>179.75284529999999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>33</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>177.55696998000002</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>34</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>183.84436728</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>35</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>180.59551608000001</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>36</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>183.00749801999999</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>37</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>176.79987162</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>6</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>9</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>11</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>14.32</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>13</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>14.32</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>14.44</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>13.96</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>17</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>18</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>19</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>20</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>12.28</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>23</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>24</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>25</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>26</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>27</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>28</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>29</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>30</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>31</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>11.92</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>32</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>11.72</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>33</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>11.92</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>34</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>35</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>12.92</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>36</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>12.28</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>37</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>12.56</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>6</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>9</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>49.07</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>10</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>48.16</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>11</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>51.76</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>12</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>50.73</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>13</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>50.43</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>14</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>48.16</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>15</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>16</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>48.52</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>17</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>48.58</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>18</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>45.89</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>19</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>45.76</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>20</v>
       </c>
@@ -2883,7 +2886,7 @@
         <v>46.22</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>21</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>22</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>42.05</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>23</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>24</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>46.48</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>25</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>44.05</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>26</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>47.23</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>27</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>45.23</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>28</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>29</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>37.869999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>30</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>39.06</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>31</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>39.42</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>32</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>38.369999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>33</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>38.01</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>34</v>
       </c>
@@ -3177,7 +3180,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>35</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>38.42</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>36</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>37</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>39.61</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>41</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>199.66221155999997</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>43</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>200.93129405999997</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>44</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>199.15602894000003</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>45</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>199.62740244000003</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>46</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>202.88495591999998</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>47</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>201.34175160000001</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>48</v>
       </c>
@@ -3387,7 +3390,7 @@
         <v>202.48175028</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>49</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>202.49190294000002</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>50</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>199.62160091999999</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>51</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>201.35915616</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>52</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>204.99525882</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>204.59640432</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>54</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>204.92128944000001</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>55</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>205.08228162</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>56</v>
       </c>
@@ -3555,7 +3558,7 @@
         <v>206.01487596000001</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>57</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>207.24914934</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>58</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>206.96197410000002</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>59</v>
       </c>
@@ -3618,7 +3621,7 @@
         <v>207.49861470000002</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>60</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>206.63998974</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>61</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>204.69735076800001</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>62</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>206.85464598000002</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>63</v>
       </c>
@@ -3702,7 +3705,7 @@
         <v>206.12655522</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>64</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>206.11350179999999</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>65</v>
       </c>
@@ -3744,7 +3747,7 @@
         <v>205.6566321</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>66</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>206.80243229999999</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>67</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>207.22594326000001</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>68</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>206.66899734</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>69</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>208.05556061999999</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>70</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>205.89304403999998</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>71</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>206.97937865999998</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>41</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>177.29445120000003</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>43</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>185.7791742</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>44</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>180.33589805999998</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>45</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>179.10162467999999</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>46</v>
       </c>
@@ -3975,7 +3978,7 @@
         <v>180.42727199999999</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>47</v>
       </c>
@@ -3996,7 +3999,7 @@
         <v>179.47582272</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>48</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>180.27498210000002</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>49</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>179.59040274</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>50</v>
       </c>
@@ -4059,7 +4062,7 @@
         <v>176.81292503999998</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>51</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>181.09009566</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>52</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>183.98360375999999</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>53</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>186.49276115999999</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>54</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>186.41589102</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>55</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>185.56596834000001</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>56</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>186.56092902</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>57</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>187.15993596000001</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>58</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>186.81184475999999</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>59</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>185.90390687999999</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>60</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>185.55581567999999</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>61</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>182.82765089999998</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>62</v>
       </c>
@@ -4311,7 +4314,7 @@
         <v>183.00024612000001</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>63</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>180.77826396</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>64</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>188.01856092</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>65</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>184.6623816</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>66</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>189.09184212</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>67</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>180.69559229999999</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>68</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>184.60146563999999</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>69</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>184.03726782000001</v>
       </c>
     </row>
-    <row r="180" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>70</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>187.88512596000001</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>71</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>186.3810819</v>
       </c>
     </row>
-    <row r="182" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>41</v>
       </c>
@@ -4521,7 +4524,7 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="183" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>43</v>
       </c>
@@ -4542,7 +4545,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="184" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>44</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="185" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>45</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="186" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>46</v>
       </c>
@@ -4605,7 +4608,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="187" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>47</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="188" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>48</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="189" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>49</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>14.46</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>50</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>51</v>
       </c>
@@ -4710,7 +4713,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>52</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>53</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>54</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>14.06</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>55</v>
       </c>
@@ -4794,7 +4797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>56</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>57</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>58</v>
       </c>
@@ -4857,7 +4860,7 @@
         <v>14.46</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>59</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>13.94</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>60</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>61</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>14.46</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>62</v>
       </c>
@@ -4941,7 +4944,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>63</v>
       </c>
@@ -4962,7 +4965,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>64</v>
       </c>
@@ -4983,7 +4986,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>65</v>
       </c>
@@ -5004,7 +5007,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>66</v>
       </c>
@@ -5025,7 +5028,7 @@
         <v>12.86</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>67</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>12.82</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>68</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>69</v>
       </c>
@@ -5088,7 +5091,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>70</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>12.68</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>71</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>41</v>
       </c>
@@ -5151,7 +5154,7 @@
         <v>50.69</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>43</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>50.84</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>44</v>
       </c>
@@ -5193,7 +5196,7 @@
         <v>49.58</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>45</v>
       </c>
@@ -5214,7 +5217,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>46</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>49.42</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>47</v>
       </c>
@@ -5256,7 +5259,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>48</v>
       </c>
@@ -5277,7 +5280,7 @@
         <v>49.02</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>49</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>48.07</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>50</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>51.11</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>51</v>
       </c>
@@ -5340,7 +5343,7 @@
         <v>50.86</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>52</v>
       </c>
@@ -5361,7 +5364,7 @@
         <v>45.29</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>53</v>
       </c>
@@ -5382,7 +5385,7 @@
         <v>45.32</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>54</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>45.71</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>55</v>
       </c>
@@ -5424,7 +5427,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>56</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>43.63</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>57</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>43.44</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>58</v>
       </c>
@@ -5487,7 +5490,7 @@
         <v>44.88</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>59</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>43.21</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>60</v>
       </c>
@@ -5529,7 +5532,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>61</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>45.17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>62</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>41.19</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>63</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>41.32</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>64</v>
       </c>
@@ -5613,7 +5616,7 @@
         <v>42.48</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>65</v>
       </c>
@@ -5634,7 +5637,7 @@
         <v>39.71</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>66</v>
       </c>
@@ -5655,7 +5658,7 @@
         <v>40.33</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>67</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>39.32</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>68</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>39.54</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>69</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>40.36</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>70</v>
       </c>
@@ -5739,7 +5742,7 @@
         <v>40.340000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>71</v>
       </c>
@@ -5760,7 +5763,6 @@
         <v>38.01</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="G182:G211">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
